--- a/Assets/Resources/GuideResources/GuideDB_day7.xlsx
+++ b/Assets/Resources/GuideResources/GuideDB_day7.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\행잉\Data\가이드창\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\행잉\Hanging\Assets\Resources\GuideResources\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -182,18 +182,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>&lt;최상급 시민&gt;
-마르티네즈, 헤르난데즈, 로페즈, 산체스, 리베라, 러셀, 리처즈, 멘데즈, 헤일
-&lt;상급 시민&gt;
-가르시아, 루이스, 넬슨, 에드워즈, 필립스, 반즈, 제이콥스, 크로스, 프로이드
-&lt;중급 시민&gt;테일러, 화이트, 잭슨, 앤더슨, 로드리게즈, 알렌, 콜린스, 로저스, 레이놀즈, 보이드, 해리슨, 라모스, 가렛, 메디나, 다니엘, 델가도, 오르테가, 무디
-&lt;하급 시민&gt;
-스미스, 데이비스, 마틴, 그린, 페레즈, 하워드, 알렉산더, 마이어스, 디아즈, 스티븐스, 라일리, 루이즈, 라이언, 메이어, 산티아, 슈나이더, 모란, 하몬
-&lt;최하급 시민&gt;
-브라운, 그레이, 젠킨스, 왓슨, 오티즈, 로즈, 페르난데즈, 오브라이언, 프랜시스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1급: 살인 / 2급: 상해, 폭행, 강도 / 3급: 강간, 강제 추행 / 4급: 협박, 공갈, 사기 / 5급: 모욕</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -296,6 +284,19 @@
   </si>
   <si>
     <t>G등급 구역 밖에 있는 최하급 시민은 불법 이동자로 취급, 이 경우 무조건 사형한다 (2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;최상급 시민&gt;
+마르티네즈, 헤르난데즈, 로페즈, 산체스, 리베라, 러셀, 리처즈, 멘데즈, 헤일
+&lt;상급 시민&gt;
+가르시아, 루이스, 넬슨, 에드워즈, 필립스, 반즈, 제이콥스, 크로스, 프로이드
+&lt;중급 시민&gt;
+테일러, 화이트, 잭슨, 앤더슨, 로드리게즈, 알렌, 콜린스, 로저스, 레이놀즈, 보이드, 해리슨, 라모스, 가렛, 메디나, 다니엘, 델가도, 오르테가, 무디
+&lt;하급 시민&gt;
+스미스, 데이비스, 마틴, 그린, 페레즈, 하워드, 알렉산더, 마이어스, 디아즈, 스티븐스, 라일리, 루이즈, 라이언, 메이어, 산티아, 슈나이더, 모란, 하몬
+&lt;최하급 시민&gt;
+브라운, 그레이, 젠킨스, 왓슨, 오티즈, 로즈, 페르난데즈, 오브라이언, 프랜시스</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -631,11 +632,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E50"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="77.125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -931,7 +935,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="409.5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" ht="264" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>7</v>
       </c>
@@ -939,7 +943,7 @@
         <v>36</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>39</v>
+        <v>61</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
@@ -964,7 +968,7 @@
         <v>36</v>
       </c>
       <c r="C24" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
@@ -975,7 +979,7 @@
         <v>35</v>
       </c>
       <c r="C25" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D25">
         <v>3</v>
@@ -989,7 +993,7 @@
         <v>36</v>
       </c>
       <c r="C26" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
@@ -1000,7 +1004,7 @@
         <v>35</v>
       </c>
       <c r="C27" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D27" t="s">
         <v>13</v>
@@ -1014,7 +1018,7 @@
         <v>36</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="33" x14ac:dyDescent="0.3">
@@ -1039,7 +1043,7 @@
         <v>36</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
@@ -1050,7 +1054,7 @@
         <v>35</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D31" t="s">
         <v>16</v>
@@ -1064,7 +1068,7 @@
         <v>36</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
@@ -1089,7 +1093,7 @@
         <v>35</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D34" t="s">
         <v>19</v>
@@ -1103,7 +1107,7 @@
         <v>36</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="33" x14ac:dyDescent="0.3">
@@ -1114,7 +1118,7 @@
         <v>35</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D36" t="s">
         <v>21</v>
@@ -1128,7 +1132,7 @@
         <v>36</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
@@ -1139,7 +1143,7 @@
         <v>35</v>
       </c>
       <c r="C38" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D38">
         <v>6</v>
@@ -1153,7 +1157,7 @@
         <v>36</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
@@ -1164,7 +1168,7 @@
         <v>35</v>
       </c>
       <c r="C40" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D40" t="s">
         <v>24</v>
@@ -1178,7 +1182,7 @@
         <v>36</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
@@ -1203,7 +1207,7 @@
         <v>35</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D43" t="s">
         <v>27</v>
@@ -1217,7 +1221,7 @@
         <v>35</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D44" t="s">
         <v>30</v>
@@ -1231,7 +1235,7 @@
         <v>36</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="33" x14ac:dyDescent="0.3">
@@ -1242,7 +1246,7 @@
         <v>35</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D46" t="s">
         <v>32</v>
@@ -1256,7 +1260,7 @@
         <v>36</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="33" x14ac:dyDescent="0.3">
@@ -1267,7 +1271,7 @@
         <v>35</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D48" t="s">
         <v>34</v>
@@ -1281,7 +1285,7 @@
         <v>36</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Resources/GuideResources/GuideDB_day7.xlsx
+++ b/Assets/Resources/GuideResources/GuideDB_day7.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\행잉\Hanging\Assets\Resources\GuideResources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\행잉\Data\가이드창\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -182,6 +182,18 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>&lt;최상급 시민&gt;
+마르티네즈, 헤르난데즈, 로페즈, 산체스, 리베라, 러셀, 리처즈, 멘데즈, 헤일
+&lt;상급 시민&gt;
+가르시아, 루이스, 넬슨, 에드워즈, 필립스, 반즈, 제이콥스, 크로스, 프로이드
+&lt;중급 시민&gt;테일러, 화이트, 잭슨, 앤더슨, 로드리게즈, 알렌, 콜린스, 로저스, 레이놀즈, 보이드, 해리슨, 라모스, 가렛, 메디나, 다니엘, 델가도, 오르테가, 무디
+&lt;하급 시민&gt;
+스미스, 데이비스, 마틴, 그린, 페레즈, 하워드, 알렉산더, 마이어스, 디아즈, 스티븐스, 라일리, 루이즈, 라이언, 메이어, 산티아, 슈나이더, 모란, 하몬
+&lt;최하급 시민&gt;
+브라운, 그레이, 젠킨스, 왓슨, 오티즈, 로즈, 페르난데즈, 오브라이언, 프랜시스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>1급: 살인 / 2급: 상해, 폭행, 강도 / 3급: 강간, 강제 추행 / 4급: 협박, 공갈, 사기 / 5급: 모욕</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -284,19 +296,6 @@
   </si>
   <si>
     <t>G등급 구역 밖에 있는 최하급 시민은 불법 이동자로 취급, 이 경우 무조건 사형한다 (2)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;최상급 시민&gt;
-마르티네즈, 헤르난데즈, 로페즈, 산체스, 리베라, 러셀, 리처즈, 멘데즈, 헤일
-&lt;상급 시민&gt;
-가르시아, 루이스, 넬슨, 에드워즈, 필립스, 반즈, 제이콥스, 크로스, 프로이드
-&lt;중급 시민&gt;
-테일러, 화이트, 잭슨, 앤더슨, 로드리게즈, 알렌, 콜린스, 로저스, 레이놀즈, 보이드, 해리슨, 라모스, 가렛, 메디나, 다니엘, 델가도, 오르테가, 무디
-&lt;하급 시민&gt;
-스미스, 데이비스, 마틴, 그린, 페레즈, 하워드, 알렉산더, 마이어스, 디아즈, 스티븐스, 라일리, 루이즈, 라이언, 메이어, 산티아, 슈나이더, 모란, 하몬
-&lt;최하급 시민&gt;
-브라운, 그레이, 젠킨스, 왓슨, 오티즈, 로즈, 페르난데즈, 오브라이언, 프랜시스</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -632,14 +631,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:E50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="3" max="3" width="77.125" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -935,7 +931,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="264" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" ht="409.5" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>7</v>
       </c>
@@ -943,7 +939,7 @@
         <v>36</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
@@ -968,7 +964,7 @@
         <v>36</v>
       </c>
       <c r="C24" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
@@ -979,7 +975,7 @@
         <v>35</v>
       </c>
       <c r="C25" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D25">
         <v>3</v>
@@ -993,7 +989,7 @@
         <v>36</v>
       </c>
       <c r="C26" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
@@ -1004,7 +1000,7 @@
         <v>35</v>
       </c>
       <c r="C27" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D27" t="s">
         <v>13</v>
@@ -1018,7 +1014,7 @@
         <v>36</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="33" x14ac:dyDescent="0.3">
@@ -1043,7 +1039,7 @@
         <v>36</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
@@ -1054,7 +1050,7 @@
         <v>35</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D31" t="s">
         <v>16</v>
@@ -1068,7 +1064,7 @@
         <v>36</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
@@ -1093,7 +1089,7 @@
         <v>35</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D34" t="s">
         <v>19</v>
@@ -1107,7 +1103,7 @@
         <v>36</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="33" x14ac:dyDescent="0.3">
@@ -1118,7 +1114,7 @@
         <v>35</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D36" t="s">
         <v>21</v>
@@ -1132,7 +1128,7 @@
         <v>36</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
@@ -1143,7 +1139,7 @@
         <v>35</v>
       </c>
       <c r="C38" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D38">
         <v>6</v>
@@ -1157,7 +1153,7 @@
         <v>36</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
@@ -1168,7 +1164,7 @@
         <v>35</v>
       </c>
       <c r="C40" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D40" t="s">
         <v>24</v>
@@ -1182,7 +1178,7 @@
         <v>36</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
@@ -1207,7 +1203,7 @@
         <v>35</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D43" t="s">
         <v>27</v>
@@ -1221,7 +1217,7 @@
         <v>35</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D44" t="s">
         <v>30</v>
@@ -1235,7 +1231,7 @@
         <v>36</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="33" x14ac:dyDescent="0.3">
@@ -1246,7 +1242,7 @@
         <v>35</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D46" t="s">
         <v>32</v>
@@ -1260,7 +1256,7 @@
         <v>36</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="33" x14ac:dyDescent="0.3">
@@ -1271,7 +1267,7 @@
         <v>35</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D48" t="s">
         <v>34</v>
@@ -1285,7 +1281,7 @@
         <v>36</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
